--- a/HCI_Team6_ScoreTablet.xlsx
+++ b/HCI_Team6_ScoreTablet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Workshop\Human Computer Interaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\HCI_Team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Activity</t>
   </si>
@@ -38,13 +38,16 @@
     <t>Steven Chen</t>
   </si>
   <si>
-    <t>Larry Yussef</t>
-  </si>
-  <si>
-    <t>HCI_Team6_ProposalElaboration</t>
-  </si>
-  <si>
     <t>Proyecto_HCI.pptx</t>
+  </si>
+  <si>
+    <t>HCI_Team6_ProposalElaboration.docx</t>
+  </si>
+  <si>
+    <t>HCI_Team6_PersonaAttributes.docx</t>
+  </si>
+  <si>
+    <t>For each activity, a score of 100% is distributed to each member based on how much they worked on them</t>
   </si>
 </sst>
 </file>
@@ -80,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,19 +367,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,11 +392,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="F1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -405,13 +409,11 @@
       <c r="D2" s="1">
         <v>0.1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
@@ -422,11 +424,24 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.33329999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HCI_Team6_ScoreTablet.xlsx
+++ b/HCI_Team6_ScoreTablet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Activity</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>For each activity, a score of 100% is distributed to each member based on how much they worked on them</t>
+  </si>
+  <si>
+    <t>HCI_Team6_ProposalVideo</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +443,20 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HCI_Team6_ScoreTablet.xlsx
+++ b/HCI_Team6_ScoreTablet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Activity</t>
   </si>
@@ -51,13 +51,23 @@
   </si>
   <si>
     <t>HCI_Team6_ProposalVideo</t>
+  </si>
+  <si>
+    <t>HCI_Team6_SurveyQuestions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +93,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,13 +415,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.45</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.45</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.1</v>
       </c>
       <c r="E2" s="1"/>
@@ -418,13 +430,13 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
@@ -455,6 +467,20 @@
       </c>
       <c r="D5" s="2">
         <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/HCI_Team6_ScoreTablet.xlsx
+++ b/HCI_Team6_ScoreTablet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Activity</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Steven Chen</t>
   </si>
   <si>
-    <t>Proyecto_HCI.pptx</t>
-  </si>
-  <si>
-    <t>HCI_Team6_ProposalElaboration.docx</t>
-  </si>
-  <si>
-    <t>HCI_Team6_PersonaAttributes.docx</t>
-  </si>
-  <si>
     <t>For each activity, a score of 100% is distributed to each member based on how much they worked on them</t>
   </si>
   <si>
@@ -54,6 +45,27 @@
   </si>
   <si>
     <t>HCI_Team6_SurveyQuestions</t>
+  </si>
+  <si>
+    <t>HCI_Team6_Data analysis</t>
+  </si>
+  <si>
+    <t>HCI_Team6_Persona</t>
+  </si>
+  <si>
+    <t>HCI_Team6_PersonaAttributes</t>
+  </si>
+  <si>
+    <t>Proyecto_HCI</t>
+  </si>
+  <si>
+    <t>HCI_Team6_ProposalElaboration</t>
+  </si>
+  <si>
+    <t>HCI_Team6_Requirements</t>
+  </si>
+  <si>
+    <t>HCI_Team6_FirstDelivery</t>
   </si>
 </sst>
 </file>
@@ -382,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,12 +420,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>0.45</v>
@@ -428,7 +440,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>0.5</v>
@@ -443,7 +455,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0.33329999999999999</v>
@@ -457,7 +469,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>0.33329999999999999</v>
@@ -471,7 +483,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>0.25</v>
@@ -481,6 +493,62 @@
       </c>
       <c r="D6" s="2">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.33329999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/HCI_Team6_ScoreTablet.xlsx
+++ b/HCI_Team6_ScoreTablet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Activity</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>HCI_Team6_FirstDelivery</t>
+  </si>
+  <si>
+    <t>HCI_Team6_Requirements (Revision)</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>HCI_Team6_2ndDelivery</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +560,48 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HCI_Team6_ScoreTablet.xlsx
+++ b/HCI_Team6_ScoreTablet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Activity</t>
   </si>
@@ -66,12 +66,30 @@
   </si>
   <si>
     <t>HCI_Team6_FirstDelivery</t>
+  </si>
+  <si>
+    <t>HCI_Team6_Requirements (Update)</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>HCI_Team6_2ndDelivery</t>
+  </si>
+  <si>
+    <t>HCI_Team6_Metrics</t>
+  </si>
+  <si>
+    <t>HCI_Team6_UsabilityTestPlan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +130,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,8 +569,82 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" tooltip="HCI_Team6_Metrics.pdf" display="https://github.com/StevenChenZhen/HCI_Team6/blob/3rd-delivery/HCI_Team6_Metrics.pdf"/>
+    <hyperlink ref="A15" r:id="rId2" tooltip="HCI_Team6_UsabilityTestPlan.pdf" display="https://github.com/StevenChenZhen/HCI_Team6/blob/3rd-delivery/HCI_Team6_UsabilityTestPlan.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>